--- a/Aula_Pratica_05/Preparação alínea c).xlsx
+++ b/Aula_Pratica_05/Preparação alínea c).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
   <si>
     <t>Linguagem Simbólica</t>
   </si>
@@ -62,9 +62,6 @@
     <t>R1 ← 1</t>
   </si>
   <si>
-    <t>R2 ← 1</t>
-  </si>
-  <si>
     <t>R3 ← X</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Decimal</t>
   </si>
   <si>
-    <t>A ← A + R2</t>
-  </si>
-  <si>
     <t>Fn = Fn-1 + Fn-2</t>
   </si>
   <si>
@@ -107,9 +101,6 @@
     <t>A ← R1</t>
   </si>
   <si>
-    <t>JUMP</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -143,10 +134,31 @@
     <t>R2 ← A</t>
   </si>
   <si>
-    <t>JNZ (5)</t>
-  </si>
-  <si>
-    <t>00101</t>
+    <t>R2 ← 0</t>
+  </si>
+  <si>
+    <t>JNZ (7)</t>
+  </si>
+  <si>
+    <t>R1 ← A + R2</t>
+  </si>
+  <si>
+    <t>JNZ (4)</t>
+  </si>
+  <si>
+    <t>JUMP (7)</t>
+  </si>
+  <si>
+    <t>JUMP (4)</t>
+  </si>
+  <si>
+    <t>00111</t>
+  </si>
+  <si>
+    <t>00100</t>
+  </si>
+  <si>
+    <t>ERRADO</t>
   </si>
 </sst>
 </file>
@@ -199,8 +211,10 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -224,7 +238,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -270,9 +284,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -282,9 +293,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -292,6 +300,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -306,18 +320,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,24 +617,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -625,7 +643,7 @@
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="21" t="s">
@@ -636,22 +654,22 @@
       <c r="I1" s="21"/>
       <c r="J1" s="8"/>
       <c r="K1" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
@@ -666,265 +684,268 @@
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="12" t="str">
+        <v>32</v>
+      </c>
+      <c r="E3" s="11" t="str">
         <f>CONCATENATE(B3,C3,D3)</f>
-        <v>00010011</v>
-      </c>
-      <c r="F3" s="16" t="s">
+        <v>00010001</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="14" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="10" t="str">
         <f>BIN2HEX(CONCATENATE(B3,C3,D3))</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L3" s="10">
         <f>BIN2DEC(CONCATENATE(B3,C3,D3))</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="14" t="str">
+        <v>33</v>
+      </c>
+      <c r="E4" s="13" t="str">
         <f t="shared" ref="E4:E12" si="0">CONCATENATE(B4,C4,D4)</f>
-        <v>00010101</v>
-      </c>
-      <c r="F4" s="16" t="s">
+        <v>00010110</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="16" t="s">
+      <c r="G4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="10" t="str">
-        <f t="shared" ref="K4:K11" si="1">BIN2HEX(CONCATENATE(B4,C4,D4))</f>
-        <v>15</v>
+        <f t="shared" ref="K4:K13" si="1">BIN2HEX(CONCATENATE(B4,C4,D4))</f>
+        <v>16</v>
       </c>
       <c r="L4" s="10">
-        <f t="shared" ref="L4:L11" si="2">BIN2DEC(CONCATENATE(B4,C4,D4))</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" ref="L4:L13" si="2">BIN2DEC(CONCATENATE(B4,C4,D4))</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="14" t="str">
+        <v>25</v>
+      </c>
+      <c r="E5" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>00010110</v>
-      </c>
-      <c r="F5" s="16" t="s">
+        <v>00010111</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="16" t="s">
+      <c r="G5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>4</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="14" t="str">
+      <c r="C6" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>00000100</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+        <v>10100111</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="8"/>
       <c r="K6" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>A7</v>
       </c>
       <c r="L6" s="10">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>00001000</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>01001000</v>
-      </c>
-      <c r="F7" s="17" t="s">
+      <c r="G7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="16" t="s">
+      <c r="H7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>4</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="L7" s="10">
         <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="14" t="str">
+        <v>32</v>
+      </c>
+      <c r="E8" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>00000100</v>
-      </c>
-      <c r="F8" s="17" t="s">
+        <v>01000101</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="14" t="s">
         <v>4</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="L8" s="10">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="14" t="str">
+        <v>33</v>
+      </c>
+      <c r="E9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>00000010</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="14" t="s">
         <v>4</v>
       </c>
       <c r="J9" s="8"/>
@@ -937,33 +958,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="14" t="str">
+        <v>34</v>
+      </c>
+      <c r="E10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>00001100</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="16" t="s">
+      <c r="G10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>4</v>
       </c>
       <c r="J10" s="8"/>
@@ -976,33 +997,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="14" t="str">
+      <c r="E11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>00110111</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="14" t="s">
         <v>4</v>
       </c>
       <c r="J11" s="8"/>
@@ -1015,60 +1036,76 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="14" t="str">
+      <c r="B12" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>10100101</v>
-      </c>
-      <c r="F12" s="24" t="s">
+        <v>10100100</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>A4</v>
+      </c>
+      <c r="L12" s="10">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-    </row>
-    <row r="15" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
@@ -1081,7 +1118,7 @@
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
     </row>
-    <row r="16" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -1137,7 +1174,7 @@
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -1151,17 +1188,32 @@
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
     </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A14:L20"/>
+    <mergeCell ref="A15:L21"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="K12:L12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
